--- a/Jogos_do_Dia/2023-08-03_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-08-03_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -655,13 +655,13 @@
         <v>45</v>
       </c>
       <c r="G2">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="H2">
-        <v>5.2</v>
+        <v>5.9</v>
       </c>
       <c r="I2">
-        <v>7.2</v>
+        <v>10.8</v>
       </c>
       <c r="J2">
         <v>1.03</v>
@@ -718,19 +718,19 @@
         <v>2.86</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>7.75</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AG2">
         <v>1.77</v>
@@ -739,7 +739,7 @@
         <v>2.17</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="3" spans="1:35">
@@ -762,52 +762,52 @@
         <v>46</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -869,13 +869,13 @@
         <v>47</v>
       </c>
       <c r="G4">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="H4">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="I4">
-        <v>2.81</v>
+        <v>3.19</v>
       </c>
       <c r="J4">
         <v>1.07</v>
@@ -890,10 +890,10 @@
         <v>2.7</v>
       </c>
       <c r="N4">
-        <v>2.17</v>
+        <v>2.25</v>
       </c>
       <c r="O4">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="P4">
         <v>1.5</v>
@@ -976,13 +976,13 @@
         <v>48</v>
       </c>
       <c r="G5">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="H5">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="I5">
-        <v>8.6</v>
+        <v>11.5</v>
       </c>
       <c r="J5">
         <v>1.02</v>
@@ -997,10 +997,10 @@
         <v>4.8</v>
       </c>
       <c r="N5">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
       <c r="O5">
-        <v>2.18</v>
+        <v>2.33</v>
       </c>
       <c r="P5">
         <v>1.25</v>

--- a/Jogos_do_Dia/2023-08-03_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-08-03_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -655,13 +655,13 @@
         <v>45</v>
       </c>
       <c r="G2">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="H2">
-        <v>5.9</v>
+        <v>5.1</v>
       </c>
       <c r="I2">
-        <v>10.8</v>
+        <v>9</v>
       </c>
       <c r="J2">
         <v>1.03</v>
@@ -676,10 +676,10 @@
         <v>4.8</v>
       </c>
       <c r="N2">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="O2">
-        <v>2.3</v>
+        <v>2.19</v>
       </c>
       <c r="P2">
         <v>1.28</v>
@@ -762,13 +762,13 @@
         <v>46</v>
       </c>
       <c r="G3">
-        <v>2.85</v>
+        <v>2.75</v>
       </c>
       <c r="H3">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I3">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="J3">
         <v>1.05</v>
@@ -783,10 +783,10 @@
         <v>3.2</v>
       </c>
       <c r="N3">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="O3">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="P3">
         <v>1.37</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -869,13 +869,13 @@
         <v>47</v>
       </c>
       <c r="G4">
-        <v>2.28</v>
+        <v>2.58</v>
       </c>
       <c r="H4">
-        <v>3.3</v>
+        <v>3.11</v>
       </c>
       <c r="I4">
-        <v>3.19</v>
+        <v>2.85</v>
       </c>
       <c r="J4">
         <v>1.07</v>
@@ -890,7 +890,7 @@
         <v>2.7</v>
       </c>
       <c r="N4">
-        <v>2.25</v>
+        <v>2.23</v>
       </c>
       <c r="O4">
         <v>1.57</v>
@@ -976,13 +976,13 @@
         <v>48</v>
       </c>
       <c r="G5">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="H5">
-        <v>6.2</v>
+        <v>5.61</v>
       </c>
       <c r="I5">
-        <v>11.5</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="J5">
         <v>1.02</v>
@@ -997,10 +997,10 @@
         <v>4.8</v>
       </c>
       <c r="N5">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="O5">
-        <v>2.33</v>
+        <v>2.53</v>
       </c>
       <c r="P5">
         <v>1.25</v>
